--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H2">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I2">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J2">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N2">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q2">
-        <v>4892.952834117948</v>
+        <v>727.4685118349847</v>
       </c>
       <c r="R2">
-        <v>44036.57550706153</v>
+        <v>6547.216606514863</v>
       </c>
       <c r="S2">
-        <v>0.05414949122683185</v>
+        <v>0.01932345592484979</v>
       </c>
       <c r="T2">
-        <v>0.05414949122683185</v>
+        <v>0.01932345592484979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H3">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I3">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J3">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q3">
-        <v>482.9496511669344</v>
+        <v>327.3873533145157</v>
       </c>
       <c r="R3">
-        <v>4346.546860502409</v>
+        <v>2946.486179830642</v>
       </c>
       <c r="S3">
-        <v>0.005344723071212627</v>
+        <v>0.008696259685754326</v>
       </c>
       <c r="T3">
-        <v>0.005344723071212627</v>
+        <v>0.008696259685754326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H4">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I4">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J4">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N4">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q4">
-        <v>186.834615958357</v>
+        <v>95.08520176232756</v>
       </c>
       <c r="R4">
-        <v>1681.511543625213</v>
+        <v>855.7668158609481</v>
       </c>
       <c r="S4">
-        <v>0.002067667468028913</v>
+        <v>0.002525710289130105</v>
       </c>
       <c r="T4">
-        <v>0.002067667468028913</v>
+        <v>0.002525710289130105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H5">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I5">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J5">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N5">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q5">
-        <v>5420.989838275871</v>
+        <v>3000.108161524839</v>
       </c>
       <c r="R5">
-        <v>48788.90854448284</v>
+        <v>27000.97345372355</v>
       </c>
       <c r="S5">
-        <v>0.05999318849787787</v>
+        <v>0.07969067648409442</v>
       </c>
       <c r="T5">
-        <v>0.05999318849787787</v>
+        <v>0.07969067648409441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>299.591797</v>
       </c>
       <c r="I6">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J6">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N6">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O6">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P6">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q6">
-        <v>7309.220496523181</v>
+        <v>1603.076292781705</v>
       </c>
       <c r="R6">
-        <v>65782.98446870863</v>
+        <v>14427.68663503535</v>
       </c>
       <c r="S6">
-        <v>0.08088992160146391</v>
+        <v>0.04258187616891045</v>
       </c>
       <c r="T6">
-        <v>0.08088992160146391</v>
+        <v>0.04258187616891046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>299.591797</v>
       </c>
       <c r="I7">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J7">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.672773</v>
       </c>
       <c r="O7">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P7">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q7">
         <v>721.4427787825645</v>
@@ -883,10 +883,10 @@
         <v>6492.985009043081</v>
       </c>
       <c r="S7">
-        <v>0.007984086653757829</v>
+        <v>0.01916339678117683</v>
       </c>
       <c r="T7">
-        <v>0.00798408665375783</v>
+        <v>0.01916339678117683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>299.591797</v>
       </c>
       <c r="I8">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J8">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N8">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O8">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P8">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q8">
-        <v>279.0984198540796</v>
+        <v>209.5332378786571</v>
       </c>
       <c r="R8">
-        <v>2511.885778686717</v>
+        <v>1885.799140907914</v>
       </c>
       <c r="S8">
-        <v>0.003088735565143771</v>
+        <v>0.005565747824227108</v>
       </c>
       <c r="T8">
-        <v>0.003088735565143771</v>
+        <v>0.005565747824227108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>299.591797</v>
       </c>
       <c r="I9">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J9">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N9">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O9">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P9">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q9">
-        <v>8098.015938572346</v>
+        <v>6611.148374504926</v>
       </c>
       <c r="R9">
-        <v>72882.14344715112</v>
+        <v>59500.33537054434</v>
       </c>
       <c r="S9">
-        <v>0.08961938892254141</v>
+        <v>0.1756092973772128</v>
       </c>
       <c r="T9">
-        <v>0.08961938892254143</v>
+        <v>0.1756092973772128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H10">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I10">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J10">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N10">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O10">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P10">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q10">
-        <v>1083.602016991694</v>
+        <v>264.7135244806142</v>
       </c>
       <c r="R10">
-        <v>9752.41815292524</v>
+        <v>2382.421720325528</v>
       </c>
       <c r="S10">
-        <v>0.01199204241318762</v>
+        <v>0.007031479768258474</v>
       </c>
       <c r="T10">
-        <v>0.01199204241318762</v>
+        <v>0.007031479768258474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H11">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I11">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J11">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.672773</v>
       </c>
       <c r="O11">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P11">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q11">
-        <v>106.9548867221534</v>
+        <v>119.1307372846454</v>
       </c>
       <c r="R11">
-        <v>962.5939804993809</v>
+        <v>1072.176635561809</v>
       </c>
       <c r="S11">
-        <v>0.001183651855346789</v>
+        <v>0.003164422258508537</v>
       </c>
       <c r="T11">
-        <v>0.001183651855346789</v>
+        <v>0.003164422258508537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H12">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I12">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J12">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N12">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O12">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P12">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q12">
-        <v>41.37672558064633</v>
+        <v>34.5999015420829</v>
       </c>
       <c r="R12">
-        <v>372.390530225817</v>
+        <v>311.399113878746</v>
       </c>
       <c r="S12">
-        <v>0.0004579093064624108</v>
+        <v>0.0009190633842915262</v>
       </c>
       <c r="T12">
-        <v>0.0004579093064624108</v>
+        <v>0.0009190633842915262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H13">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I13">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J13">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N13">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O13">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P13">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q13">
-        <v>1200.542028912925</v>
+        <v>1091.688770496834</v>
       </c>
       <c r="R13">
-        <v>10804.87826021632</v>
+        <v>9825.198934471506</v>
       </c>
       <c r="S13">
-        <v>0.01328619798023915</v>
+        <v>0.02899809338432804</v>
       </c>
       <c r="T13">
-        <v>0.01328619798023915</v>
+        <v>0.02899809338432803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H14">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I14">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J14">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N14">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O14">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P14">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q14">
-        <v>26967.19660568123</v>
+        <v>4003.927383238825</v>
       </c>
       <c r="R14">
-        <v>242704.7694511311</v>
+        <v>36035.34644914943</v>
       </c>
       <c r="S14">
-        <v>0.2984414576468783</v>
+        <v>0.1063547260913813</v>
       </c>
       <c r="T14">
-        <v>0.2984414576468783</v>
+        <v>0.1063547260913813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H15">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I15">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J15">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.672773</v>
       </c>
       <c r="O15">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P15">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q15">
-        <v>2661.74611429944</v>
+        <v>1801.913302825424</v>
       </c>
       <c r="R15">
-        <v>23955.71502869497</v>
+        <v>16217.21972542882</v>
       </c>
       <c r="S15">
-        <v>0.02945709937346943</v>
+        <v>0.04786350435941043</v>
       </c>
       <c r="T15">
-        <v>0.02945709937346943</v>
+        <v>0.04786350435941043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H16">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I16">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J16">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N16">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O16">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P16">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q16">
-        <v>1029.727036435705</v>
+        <v>523.3411988054971</v>
       </c>
       <c r="R16">
-        <v>9267.543327921348</v>
+        <v>4710.070789249475</v>
       </c>
       <c r="S16">
-        <v>0.0113958170078209</v>
+        <v>0.01390130352620679</v>
       </c>
       <c r="T16">
-        <v>0.0113958170078209</v>
+        <v>0.01390130352620679</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H17">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I17">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J17">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N17">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O17">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P17">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q17">
-        <v>29877.43878232967</v>
+        <v>16512.35074121309</v>
       </c>
       <c r="R17">
-        <v>268896.9490409671</v>
+        <v>148611.1566709178</v>
       </c>
       <c r="S17">
-        <v>0.3306486214097372</v>
+        <v>0.438610986692259</v>
       </c>
       <c r="T17">
-        <v>0.3306486214097372</v>
+        <v>0.4386109866922589</v>
       </c>
     </row>
   </sheetData>
